--- a/тест_штрихкоды_с_улучшенным_качеством.xlsx
+++ b/тест_штрихкоды_с_улучшенным_качеством.xlsx
@@ -46,8 +46,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -133,7 +136,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2095500" cy="809625"/>
+    <ext cx="2857500" cy="809625"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -158,7 +161,7 @@
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2095500" cy="809625"/>
+    <ext cx="2857500" cy="809625"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -183,7 +186,7 @@
       <row>3</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2095500" cy="809625"/>
+    <ext cx="2857500" cy="809625"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -208,7 +211,7 @@
       <row>4</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2095500" cy="809625"/>
+    <ext cx="2857500" cy="809625"/>
     <pic>
       <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>
@@ -233,7 +236,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2095500" cy="809625"/>
+    <ext cx="2857500" cy="809625"/>
     <pic>
       <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>
@@ -543,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +556,7 @@
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -577,6 +580,7 @@
           <t>CC001</t>
         </is>
       </c>
+      <c r="C2" s="1" t="n"/>
     </row>
     <row r="3" ht="90" customHeight="1">
       <c r="A3" t="n">
@@ -587,6 +591,7 @@
           <t>CC002</t>
         </is>
       </c>
+      <c r="C3" s="1" t="n"/>
     </row>
     <row r="4" ht="90" customHeight="1">
       <c r="A4" t="n">
@@ -597,6 +602,7 @@
           <t>CC003</t>
         </is>
       </c>
+      <c r="C4" s="1" t="n"/>
     </row>
     <row r="5" ht="90" customHeight="1">
       <c r="A5" t="n">
@@ -607,6 +613,7 @@
           <t>CC004</t>
         </is>
       </c>
+      <c r="C5" s="1" t="n"/>
     </row>
     <row r="6" ht="90" customHeight="1">
       <c r="A6" t="n">
@@ -617,6 +624,7 @@
           <t>CC005</t>
         </is>
       </c>
+      <c r="C6" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/тест_штрихкоды_с_улучшенным_качеством.xlsx
+++ b/тест_штрихкоды_с_улучшенным_качеством.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test Vector Barcodes" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +50,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -136,7 +143,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="809625"/>
+    <ext cx="2667000" cy="666750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -161,7 +168,7 @@
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="809625"/>
+    <ext cx="2667000" cy="666750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -186,7 +193,7 @@
       <row>3</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="809625"/>
+    <ext cx="2667000" cy="666750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -211,7 +218,7 @@
       <row>4</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="809625"/>
+    <ext cx="2667000" cy="666750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>
@@ -236,7 +243,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="809625"/>
+    <ext cx="2667000" cy="666750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>
@@ -244,6 +251,381 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2667000" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2667000" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2667000" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2667000" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2667000" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2667000" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId11"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2667000" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId12"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2667000" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2667000" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId14"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2667000" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId15"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2667000" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId16"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2667000" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId17"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2667000" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId18"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2667000" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId19"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2667000" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId20"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -546,7 +928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,75 +938,245 @@
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>№</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Код</t>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Barcode</t>
         </is>
       </c>
     </row>
     <row r="2" ht="90" customHeight="1">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>CC001</t>
         </is>
       </c>
-      <c r="C2" s="1" t="n"/>
+      <c r="C2" s="2" t="n"/>
     </row>
     <row r="3" ht="90" customHeight="1">
-      <c r="A3" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>CC002</t>
         </is>
       </c>
-      <c r="C3" s="1" t="n"/>
+      <c r="C3" s="2" t="n"/>
     </row>
     <row r="4" ht="90" customHeight="1">
-      <c r="A4" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>CC003</t>
         </is>
       </c>
-      <c r="C4" s="1" t="n"/>
+      <c r="C4" s="2" t="n"/>
     </row>
     <row r="5" ht="90" customHeight="1">
-      <c r="A5" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>CC004</t>
         </is>
       </c>
-      <c r="C5" s="1" t="n"/>
+      <c r="C5" s="2" t="n"/>
     </row>
     <row r="6" ht="90" customHeight="1">
-      <c r="A6" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>CC005</t>
         </is>
       </c>
-      <c r="C6" s="1" t="n"/>
+      <c r="C6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="90" customHeight="1">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>CC006</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n"/>
+    </row>
+    <row r="8" ht="90" customHeight="1">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>CC007</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="90" customHeight="1">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>CC008</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="90" customHeight="1">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>CC009</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n"/>
+    </row>
+    <row r="11" ht="90" customHeight="1">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>CC010</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n"/>
+    </row>
+    <row r="12" ht="90" customHeight="1">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>CC011</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n"/>
+    </row>
+    <row r="13" ht="90" customHeight="1">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>CC012</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n"/>
+    </row>
+    <row r="14" ht="90" customHeight="1">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>CC013</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n"/>
+    </row>
+    <row r="15" ht="90" customHeight="1">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>CC014</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n"/>
+    </row>
+    <row r="16" ht="90" customHeight="1">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>CC015</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n"/>
+    </row>
+    <row r="17" ht="90" customHeight="1">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>CC016</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n"/>
+    </row>
+    <row r="18" ht="90" customHeight="1">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>CC017</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n"/>
+    </row>
+    <row r="19" ht="90" customHeight="1">
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>CC018</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n"/>
+    </row>
+    <row r="20" ht="90" customHeight="1">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>CC019</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n"/>
+    </row>
+    <row r="21" ht="90" customHeight="1">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>CC020</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/тест_штрихкоды_с_улучшенным_качеством.xlsx
+++ b/тест_штрихкоды_с_улучшенным_качеством.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test Vector Barcodes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Штрих-коды" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -38,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,13 +46,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -143,7 +152,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2667000" cy="666750"/>
+    <ext cx="2381250" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -168,7 +177,7 @@
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2667000" cy="666750"/>
+    <ext cx="2381250" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -193,7 +202,7 @@
       <row>3</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2667000" cy="666750"/>
+    <ext cx="2381250" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -218,7 +227,7 @@
       <row>4</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2667000" cy="666750"/>
+    <ext cx="2381250" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>
@@ -243,7 +252,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2667000" cy="666750"/>
+    <ext cx="2381250" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>
@@ -268,7 +277,7 @@
       <row>6</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2667000" cy="666750"/>
+    <ext cx="2381250" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="6" name="Image 6" descr="Picture"/>
@@ -293,7 +302,7 @@
       <row>7</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2667000" cy="666750"/>
+    <ext cx="2381250" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="7" name="Image 7" descr="Picture"/>
@@ -318,7 +327,7 @@
       <row>8</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2667000" cy="666750"/>
+    <ext cx="2381250" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="8" name="Image 8" descr="Picture"/>
@@ -343,7 +352,7 @@
       <row>9</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2667000" cy="666750"/>
+    <ext cx="2381250" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="9" name="Image 9" descr="Picture"/>
@@ -368,7 +377,7 @@
       <row>10</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2667000" cy="666750"/>
+    <ext cx="2381250" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="10" name="Image 10" descr="Picture"/>
@@ -393,7 +402,7 @@
       <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2667000" cy="666750"/>
+    <ext cx="2381250" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="11" name="Image 11" descr="Picture"/>
@@ -418,7 +427,7 @@
       <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2667000" cy="666750"/>
+    <ext cx="2381250" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="12" name="Image 12" descr="Picture"/>
@@ -443,7 +452,7 @@
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2667000" cy="666750"/>
+    <ext cx="2381250" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="13" name="Image 13" descr="Picture"/>
@@ -468,7 +477,7 @@
       <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2667000" cy="666750"/>
+    <ext cx="2381250" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="14" name="Image 14" descr="Picture"/>
@@ -493,7 +502,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2667000" cy="666750"/>
+    <ext cx="2381250" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="15" name="Image 15" descr="Picture"/>
@@ -518,7 +527,7 @@
       <row>16</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2667000" cy="666750"/>
+    <ext cx="2381250" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="16" name="Image 16" descr="Picture"/>
@@ -543,7 +552,7 @@
       <row>17</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2667000" cy="666750"/>
+    <ext cx="2381250" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="17" name="Image 17" descr="Picture"/>
@@ -568,7 +577,7 @@
       <row>18</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2667000" cy="666750"/>
+    <ext cx="2381250" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="18" name="Image 18" descr="Picture"/>
@@ -593,7 +602,7 @@
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2667000" cy="666750"/>
+    <ext cx="2381250" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="19" name="Image 19" descr="Picture"/>
@@ -618,7 +627,7 @@
       <row>20</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2667000" cy="666750"/>
+    <ext cx="2381250" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="20" name="Image 20" descr="Picture"/>
@@ -938,7 +947,7 @@
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -949,12 +958,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Barcode</t>
+          <t>Код текстом</t>
         </is>
       </c>
     </row>
@@ -967,7 +971,7 @@
           <t>CC001</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n"/>
+      <c r="C2" s="3" t="n"/>
     </row>
     <row r="3" ht="90" customHeight="1">
       <c r="A3" s="2" t="n">
@@ -978,7 +982,7 @@
           <t>CC002</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n"/>
+      <c r="C3" s="3" t="n"/>
     </row>
     <row r="4" ht="90" customHeight="1">
       <c r="A4" s="2" t="n">
@@ -989,7 +993,7 @@
           <t>CC003</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n"/>
+      <c r="C4" s="3" t="n"/>
     </row>
     <row r="5" ht="90" customHeight="1">
       <c r="A5" s="2" t="n">
@@ -1000,7 +1004,7 @@
           <t>CC004</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n"/>
+      <c r="C5" s="3" t="n"/>
     </row>
     <row r="6" ht="90" customHeight="1">
       <c r="A6" s="2" t="n">
@@ -1011,7 +1015,7 @@
           <t>CC005</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
+      <c r="C6" s="3" t="n"/>
     </row>
     <row r="7" ht="90" customHeight="1">
       <c r="A7" s="2" t="n">
@@ -1022,7 +1026,7 @@
           <t>CC006</t>
         </is>
       </c>
-      <c r="C7" s="2" t="n"/>
+      <c r="C7" s="3" t="n"/>
     </row>
     <row r="8" ht="90" customHeight="1">
       <c r="A8" s="2" t="n">
@@ -1033,7 +1037,7 @@
           <t>CC007</t>
         </is>
       </c>
-      <c r="C8" s="2" t="n"/>
+      <c r="C8" s="3" t="n"/>
     </row>
     <row r="9" ht="90" customHeight="1">
       <c r="A9" s="2" t="n">
@@ -1044,7 +1048,7 @@
           <t>CC008</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n"/>
+      <c r="C9" s="3" t="n"/>
     </row>
     <row r="10" ht="90" customHeight="1">
       <c r="A10" s="2" t="n">
@@ -1055,7 +1059,7 @@
           <t>CC009</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n"/>
+      <c r="C10" s="3" t="n"/>
     </row>
     <row r="11" ht="90" customHeight="1">
       <c r="A11" s="2" t="n">
@@ -1066,7 +1070,7 @@
           <t>CC010</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n"/>
+      <c r="C11" s="3" t="n"/>
     </row>
     <row r="12" ht="90" customHeight="1">
       <c r="A12" s="2" t="n">
@@ -1077,7 +1081,7 @@
           <t>CC011</t>
         </is>
       </c>
-      <c r="C12" s="2" t="n"/>
+      <c r="C12" s="3" t="n"/>
     </row>
     <row r="13" ht="90" customHeight="1">
       <c r="A13" s="2" t="n">
@@ -1088,7 +1092,7 @@
           <t>CC012</t>
         </is>
       </c>
-      <c r="C13" s="2" t="n"/>
+      <c r="C13" s="3" t="n"/>
     </row>
     <row r="14" ht="90" customHeight="1">
       <c r="A14" s="2" t="n">
@@ -1099,7 +1103,7 @@
           <t>CC013</t>
         </is>
       </c>
-      <c r="C14" s="2" t="n"/>
+      <c r="C14" s="3" t="n"/>
     </row>
     <row r="15" ht="90" customHeight="1">
       <c r="A15" s="2" t="n">
@@ -1110,7 +1114,7 @@
           <t>CC014</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n"/>
+      <c r="C15" s="3" t="n"/>
     </row>
     <row r="16" ht="90" customHeight="1">
       <c r="A16" s="2" t="n">
@@ -1121,7 +1125,7 @@
           <t>CC015</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
+      <c r="C16" s="3" t="n"/>
     </row>
     <row r="17" ht="90" customHeight="1">
       <c r="A17" s="2" t="n">
@@ -1132,7 +1136,7 @@
           <t>CC016</t>
         </is>
       </c>
-      <c r="C17" s="2" t="n"/>
+      <c r="C17" s="3" t="n"/>
     </row>
     <row r="18" ht="90" customHeight="1">
       <c r="A18" s="2" t="n">
@@ -1143,7 +1147,7 @@
           <t>CC017</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n"/>
+      <c r="C18" s="3" t="n"/>
     </row>
     <row r="19" ht="90" customHeight="1">
       <c r="A19" s="2" t="n">
@@ -1154,7 +1158,7 @@
           <t>CC018</t>
         </is>
       </c>
-      <c r="C19" s="2" t="n"/>
+      <c r="C19" s="3" t="n"/>
     </row>
     <row r="20" ht="90" customHeight="1">
       <c r="A20" s="2" t="n">
@@ -1165,7 +1169,7 @@
           <t>CC019</t>
         </is>
       </c>
-      <c r="C20" s="2" t="n"/>
+      <c r="C20" s="3" t="n"/>
     </row>
     <row r="21" ht="90" customHeight="1">
       <c r="A21" s="2" t="n">
@@ -1176,7 +1180,7 @@
           <t>CC020</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n"/>
+      <c r="C21" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
